--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inifap.gob.mx\Desktop\PROYECTO\AllDocuments\All-documents\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -947,7 +947,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -973,7 +972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1027,7 +1026,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1091,7 +1090,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1162,7 +1161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1233,7 +1232,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1304,7 +1303,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1477,7 +1476,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1533,7 +1532,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1579,7 +1578,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1664,7 +1663,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1694,7 +1692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1731,7 +1729,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1796,7 +1794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1822,7 +1819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2007,7 +2004,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2077,7 +2074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2094,7 +2091,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2120,7 +2116,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2150,7 +2146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2215,7 +2211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2888,7 +2883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -2958,7 +2953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -2975,7 +2970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3001,7 +2995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3031,7 +3025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9577,76 +9571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -9763,8 +9688,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9930,6 +9855,75 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -10212,9 +10206,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10389,7 +10383,7 @@
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>58</v>
@@ -10416,7 +10410,7 @@
         <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -10446,7 +10440,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>40</v>
